--- a/data/trans_orig/VUL_OTRO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/VUL_OTRO-Edad-trans_orig.xlsx
@@ -1083,12 +1083,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1196,12 +1196,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>68574</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>68908</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1426,12 +1426,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1441,12 +1441,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1539,12 +1539,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>94652</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>94972</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1554,12 +1554,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>99,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_orig/VUL_OTRO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/VUL_OTRO-Edad-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante otros problemas de salud mental en País Vasco</t>
+          <t>Vulnerabilidad ante otros problemas de salud mental en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3532,7 +3532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante otros problemas de salud mental en C.Valenciana</t>
+          <t>Vulnerabilidad ante otros problemas de salud mental en C.Valenciana (tasa de respuesta: 99,79%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6519,7 +6519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante otros problemas de salud mental en Barcelona</t>
+          <t>Vulnerabilidad ante otros problemas de salud mental en Barcelona (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/VUL_OTRO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/VUL_OTRO-Edad-trans_orig.xlsx
@@ -735,7 +735,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>535</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -745,12 +745,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>979</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -760,77 +760,77 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>2,62%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,15%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,77%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>2235</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>0,44%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0,11%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
           <t>1,56%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>230</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>1278</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>0,37%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>2,05%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>470</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>1470</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>0,38%</t>
-        </is>
-      </c>
-      <c r="V4" s="2" t="inlineStr">
-        <is>
-          <t>0,06%</t>
-        </is>
-      </c>
-      <c r="W4" s="2" t="inlineStr">
-        <is>
-          <t>1,17%</t>
         </is>
       </c>
     </row>
@@ -848,102 +848,102 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>62529</t>
+          <t>76199</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>61790</t>
+          <t>74727</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62769</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>99,62%</t>
+          <t>99,3%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
+          <t>97,38%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>66145</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>65735</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>66242</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>99,85%</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>99,23%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>142344</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>140741</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>142815</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>99,56%</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
           <t>98,44%</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>347</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>62263</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>61215</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>62493</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>99,63%</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>97,95%</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>720</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>124792</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>123792</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>125184</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>99,62%</t>
-        </is>
-      </c>
-      <c r="V5" s="2" t="inlineStr">
-        <is>
-          <t>98,83%</t>
-        </is>
-      </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,94%</t>
+          <t>99,89%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62769</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>62769</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>62769</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>125262</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>125262</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>125262</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>378</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1335</t>
+          <t>1278</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>378</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
@@ -1158,12 +1158,12 @@
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>0,95%</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>68908</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -1226,27 +1226,27 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>62921</t>
+          <t>68763</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>62009</t>
+          <t>67863</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>63344</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>99,33%</t>
+          <t>99,45%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>97,89%</t>
+          <t>98,15%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
@@ -1261,27 +1261,27 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>131829</t>
+          <t>143251</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>130751</t>
+          <t>142262</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>132252</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,68%</t>
+          <t>99,74%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>98,87%</t>
+          <t>99,05%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>68908</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>68908</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>68908</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>63344</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>63344</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>63344</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>132252</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>132252</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>132252</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1072</t>
+          <t>768</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>273</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2175</t>
+          <t>1625</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>1072</t>
+          <t>768</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>315</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>2431</t>
+          <t>1641</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>0,76%</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>94972</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>96736</t>
+          <t>110272</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>95633</t>
+          <t>109415</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>97445</t>
+          <t>110767</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>98,9%</t>
+          <t>99,31%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>97,78%</t>
+          <t>98,54%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,63%</t>
+          <t>99,75%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>191708</t>
+          <t>214451</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>190349</t>
+          <t>213578</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>192343</t>
+          <t>214904</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>99,44%</t>
+          <t>99,64%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>98,74%</t>
+          <t>99,24%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,77%</t>
+          <t>99,85%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>94972</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>94972</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>94972</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97808</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97808</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97808</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>192780</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>192780</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>192780</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>2175</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1032</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3609</t>
+          <t>3723</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>385</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1809,12 +1809,12 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>1525</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>2198</t>
+          <t>2560</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>1160</t>
+          <t>1451</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>3816</t>
+          <t>4368</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,47%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>136226</t>
+          <t>142243</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>134591</t>
+          <t>140695</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>137168</t>
+          <t>143265</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,57%</t>
+          <t>98,49%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,39%</t>
+          <t>97,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,25%</t>
+          <t>99,2%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,27 +1912,27 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>137866</t>
+          <t>152071</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>137326</t>
+          <t>150931</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>138090</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>99,84%</t>
+          <t>99,75%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>99,45%</t>
+          <t>99,0%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>274093</t>
+          <t>294314</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>272475</t>
+          <t>292506</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>275131</t>
+          <t>295423</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>99,2%</t>
+          <t>99,14%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>98,62%</t>
+          <t>98,53%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>99,58%</t>
+          <t>99,51%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>138200</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>138200</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>138200</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>138090</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>138090</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>138090</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>276291</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>276291</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>276291</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2107,32 +2107,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>385</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>93</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>1185</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,32 +2142,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1046</t>
+          <t>1472</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>529</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>2418</t>
+          <t>3053</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,32 +2177,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>1509</t>
+          <t>1858</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>889</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>3046</t>
+          <t>3611</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,28%</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2220,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>125744</t>
+          <t>128880</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>124796</t>
+          <t>128080</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>126108</t>
+          <t>129172</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>99,63%</t>
+          <t>99,7%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>98,88%</t>
+          <t>99,08%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,92%</t>
+          <t>99,93%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,32 +2255,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>145659</t>
+          <t>150550</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>144287</t>
+          <t>148969</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>146314</t>
+          <t>151493</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>99,29%</t>
+          <t>99,03%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>98,35%</t>
+          <t>97,99%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>99,73%</t>
+          <t>99,65%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,32 +2290,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>271402</t>
+          <t>279429</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>269865</t>
+          <t>277676</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>272211</t>
+          <t>280398</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>99,45%</t>
+          <t>99,34%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>98,88%</t>
+          <t>98,72%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>99,74%</t>
+          <t>99,68%</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>126207</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>126207</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>126207</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2368,17 +2368,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>146705</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>146705</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>146705</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2403,17 +2403,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>272911</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>272911</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>272911</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2450,32 +2450,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>426</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>125</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1767</t>
+          <t>1128</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2485,32 +2485,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1368</t>
+          <t>1058</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>467</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>3411</t>
+          <t>2255</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2520,32 +2520,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>1484</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>729</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>3975</t>
+          <t>2661</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,21%</t>
         </is>
       </c>
     </row>
@@ -2563,32 +2563,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>106763</t>
+          <t>103913</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>105604</t>
+          <t>103211</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>107165</t>
+          <t>104214</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>99,43%</t>
+          <t>99,59%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>98,35%</t>
+          <t>98,92%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,81%</t>
+          <t>99,88%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2598,32 +2598,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>113666</t>
+          <t>114864</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>111623</t>
+          <t>113667</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>114530</t>
+          <t>115455</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>98,81%</t>
+          <t>99,09%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>97,03%</t>
+          <t>98,05%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>99,56%</t>
+          <t>99,6%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2633,32 +2633,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>220428</t>
+          <t>218777</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>218429</t>
+          <t>217600</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>221459</t>
+          <t>219532</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>99,11%</t>
+          <t>99,33%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>98,21%</t>
+          <t>98,79%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>99,58%</t>
+          <t>99,67%</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>107371</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>107371</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>107371</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>115034</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>115034</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>115034</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2746,17 +2746,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>222404</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>222404</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>222404</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2793,32 +2793,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>691</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>168</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>939</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2828,32 +2828,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>1113</t>
+          <t>773</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>320</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>2717</t>
+          <t>1547</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2863,32 +2863,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>1452</t>
+          <t>1464</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>719</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>3181</t>
+          <t>2780</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,26%</t>
         </is>
       </c>
     </row>
@@ -2906,32 +2906,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>95784</t>
+          <t>88395</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>95184</t>
+          <t>87068</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>96037</t>
+          <t>88918</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>99,65%</t>
+          <t>99,22%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>99,02%</t>
+          <t>97,73%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>99,91%</t>
+          <t>99,81%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2941,32 +2941,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>132247</t>
+          <t>131054</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>130643</t>
+          <t>130280</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>132863</t>
+          <t>131507</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>99,17%</t>
+          <t>99,41%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>97,96%</t>
+          <t>98,83%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>99,63%</t>
+          <t>99,76%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2976,32 +2976,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>228031</t>
+          <t>219449</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>226302</t>
+          <t>218133</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>228809</t>
+          <t>220194</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>99,37%</t>
+          <t>99,34%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>98,61%</t>
+          <t>98,74%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>99,71%</t>
+          <t>99,67%</t>
         </is>
       </c>
     </row>
@@ -3019,17 +3019,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>96123</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>96123</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>96123</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3054,17 +3054,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>133360</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>133360</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>133360</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3089,17 +3089,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>229483</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>229483</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>229483</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3136,32 +3136,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3624</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2367</t>
+          <t>2638</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5692</t>
+          <t>6512</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3171,32 +3171,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>5477</t>
+          <t>4932</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>3712</t>
+          <t>3263</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>7889</t>
+          <t>6948</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3206,32 +3206,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>9101</t>
+          <t>9144</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>6772</t>
+          <t>6729</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>12064</t>
+          <t>12005</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,79%</t>
         </is>
       </c>
     </row>
@@ -3249,32 +3249,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>690926</t>
+          <t>718298</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>688858</t>
+          <t>715998</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>692183</t>
+          <t>719872</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>99,48%</t>
+          <t>99,42%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>99,18%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>99,66%</t>
+          <t>99,63%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3284,32 +3284,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>751356</t>
+          <t>793718</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>748944</t>
+          <t>791702</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>753121</t>
+          <t>795387</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>99,28%</t>
+          <t>99,38%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>98,96%</t>
+          <t>99,13%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>99,51%</t>
+          <t>99,59%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3319,32 +3319,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1442282</t>
+          <t>1512016</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1439319</t>
+          <t>1509155</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1444611</t>
+          <t>1514431</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>99,37%</t>
+          <t>99,4%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>99,17%</t>
+          <t>99,21%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>99,53%</t>
+          <t>99,56%</t>
         </is>
       </c>
     </row>
@@ -3362,17 +3362,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>694550</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>694550</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>694550</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3397,17 +3397,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>756833</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>756833</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>756833</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3432,17 +3432,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1451383</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1451383</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1451383</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -6714,12 +6714,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>1791</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7260</t>
+          <t>7600</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -6729,12 +6729,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -6749,12 +6749,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2211</t>
+          <t>2260</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>9298</t>
+          <t>9625</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -6764,12 +6764,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -6784,12 +6784,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>5027</t>
+          <t>5190</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>13888</t>
+          <t>14529</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -6799,12 +6799,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>11,55%</t>
         </is>
       </c>
     </row>
@@ -6827,12 +6827,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>56980</t>
+          <t>56640</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62345</t>
+          <t>62449</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -6842,12 +6842,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>88,7%</t>
+          <t>88,17%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,05%</t>
+          <t>97,21%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -6862,12 +6862,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>52242</t>
+          <t>51915</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>59329</t>
+          <t>59280</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -6877,12 +6877,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>84,89%</t>
+          <t>84,36%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>96,41%</t>
+          <t>96,33%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -6897,12 +6897,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>111892</t>
+          <t>111251</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>120753</t>
+          <t>120590</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -6912,12 +6912,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>88,96%</t>
+          <t>88,45%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>96,0%</t>
+          <t>95,87%</t>
         </is>
       </c>
     </row>
@@ -7057,12 +7057,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1729</t>
+          <t>1790</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7392</t>
+          <t>7768</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -7072,12 +7072,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -7092,12 +7092,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1058</t>
+          <t>943</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6382</t>
+          <t>6250</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -7107,12 +7107,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -7127,12 +7127,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>3734</t>
+          <t>3700</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>11378</t>
+          <t>11342</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -7142,12 +7142,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>4,52%</t>
         </is>
       </c>
     </row>
@@ -7170,12 +7170,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>115439</t>
+          <t>115063</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>121102</t>
+          <t>121041</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -7185,12 +7185,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,98%</t>
+          <t>93,68%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,59%</t>
+          <t>98,54%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -7205,12 +7205,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>121649</t>
+          <t>121781</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>126973</t>
+          <t>127088</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -7220,12 +7220,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>95,01%</t>
+          <t>95,12%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,17%</t>
+          <t>99,26%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -7240,12 +7240,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>239483</t>
+          <t>239519</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>247127</t>
+          <t>247161</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -7255,12 +7255,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>95,46%</t>
+          <t>95,48%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,51%</t>
+          <t>98,53%</t>
         </is>
       </c>
     </row>
@@ -7400,12 +7400,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1792</t>
+          <t>1949</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10342</t>
+          <t>10030</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -7415,82 +7415,82 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>1,4%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7,2%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2243</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>916</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4897</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1,71%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,7%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>3,73%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>6543</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>3496</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>13410</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>2,42%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
           <t>1,29%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>7,42%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>2243</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>966</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>4706</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>1,71%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>0,73%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>3,58%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>6543</t>
-        </is>
-      </c>
-      <c r="S10" s="2" t="inlineStr">
-        <is>
-          <t>3584</t>
-        </is>
-      </c>
-      <c r="T10" s="2" t="inlineStr">
-        <is>
-          <t>13503</t>
-        </is>
-      </c>
-      <c r="U10" s="2" t="inlineStr">
-        <is>
-          <t>2,42%</t>
-        </is>
-      </c>
-      <c r="V10" s="2" t="inlineStr">
-        <is>
-          <t>1,32%</t>
-        </is>
-      </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>4,95%</t>
         </is>
       </c>
     </row>
@@ -7513,12 +7513,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>129025</t>
+          <t>129337</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>137575</t>
+          <t>137418</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -7528,82 +7528,82 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,58%</t>
+          <t>92,8%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>98,6%</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>129188</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>126534</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>130515</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>98,29%</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>96,27%</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>99,3%</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>264254</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>257387</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>267301</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>97,58%</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>95,05%</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
           <t>98,71%</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>310</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>129188</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>126725</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>130465</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>98,29%</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>96,42%</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>99,27%</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>617</t>
-        </is>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>264254</t>
-        </is>
-      </c>
-      <c r="S11" s="2" t="inlineStr">
-        <is>
-          <t>257294</t>
-        </is>
-      </c>
-      <c r="T11" s="2" t="inlineStr">
-        <is>
-          <t>267213</t>
-        </is>
-      </c>
-      <c r="U11" s="2" t="inlineStr">
-        <is>
-          <t>97,58%</t>
-        </is>
-      </c>
-      <c r="V11" s="2" t="inlineStr">
-        <is>
-          <t>95,01%</t>
-        </is>
-      </c>
-      <c r="W11" s="2" t="inlineStr">
-        <is>
-          <t>98,68%</t>
         </is>
       </c>
     </row>
@@ -7743,12 +7743,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4836</t>
+          <t>5018</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13309</t>
+          <t>13028</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -7758,12 +7758,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -7778,12 +7778,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1923</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8897</t>
+          <t>8855</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -7793,12 +7793,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -7813,12 +7813,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>8391</t>
+          <t>8727</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>19788</t>
+          <t>18458</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -7828,12 +7828,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>7,8%</t>
         </is>
       </c>
     </row>
@@ -7856,12 +7856,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>103878</t>
+          <t>104159</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>112351</t>
+          <t>112169</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -7871,12 +7871,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>88,64%</t>
+          <t>88,88%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>95,72%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -7891,12 +7891,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>110635</t>
+          <t>110677</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>117609</t>
+          <t>117584</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -7906,12 +7906,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>92,59%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>98,39%</t>
+          <t>98,37%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -7926,12 +7926,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>216931</t>
+          <t>218261</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>228328</t>
+          <t>227992</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -7941,12 +7941,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>91,64%</t>
+          <t>92,2%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,46%</t>
+          <t>96,31%</t>
         </is>
       </c>
     </row>
@@ -8086,12 +8086,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4824</t>
+          <t>5273</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>20821</t>
+          <t>20623</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -8101,12 +8101,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>21,24%</t>
+          <t>21,04%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -8121,12 +8121,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1037</t>
+          <t>1015</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>13604</t>
+          <t>12421</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -8136,12 +8136,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -8156,12 +8156,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>7400</t>
+          <t>7882</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>26358</t>
+          <t>25803</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -8171,12 +8171,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>12,06%</t>
         </is>
       </c>
     </row>
@@ -8199,12 +8199,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>77192</t>
+          <t>77390</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>93189</t>
+          <t>92740</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -8214,12 +8214,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>78,76%</t>
+          <t>78,96%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>95,08%</t>
+          <t>94,62%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -8234,12 +8234,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>102256</t>
+          <t>103439</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>114823</t>
+          <t>114845</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -8249,12 +8249,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>88,26%</t>
+          <t>89,28%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>99,11%</t>
+          <t>99,12%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -8269,12 +8269,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>187516</t>
+          <t>188071</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>206474</t>
+          <t>205992</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -8284,12 +8284,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>87,68%</t>
+          <t>87,94%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>96,54%</t>
+          <t>96,31%</t>
         </is>
       </c>
     </row>
@@ -8429,12 +8429,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>411</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6605</t>
+          <t>6111</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -8444,12 +8444,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>8,9%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>10561</t>
+          <t>10498</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -8499,12 +8499,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1812</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>12161</t>
+          <t>13060</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -8514,12 +8514,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>8,32%</t>
         </is>
       </c>
     </row>
@@ -8542,12 +8542,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>62094</t>
+          <t>62588</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>68260</t>
+          <t>68288</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -8557,12 +8557,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>90,38%</t>
+          <t>91,1%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,36%</t>
+          <t>99,4%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -8577,7 +8577,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>77627</t>
+          <t>77690</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -8592,7 +8592,7 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>88,02%</t>
+          <t>88,1%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
@@ -8612,12 +8612,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>144726</t>
+          <t>143827</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>155075</t>
+          <t>154773</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -8627,12 +8627,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>92,25%</t>
+          <t>91,68%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>98,85%</t>
+          <t>98,65%</t>
         </is>
       </c>
     </row>
@@ -8772,12 +8772,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1518</t>
+          <t>1761</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>7341</t>
+          <t>8163</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -8787,12 +8787,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -8807,12 +8807,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>13604</t>
+          <t>13607</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>27432</t>
+          <t>27145</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -8827,7 +8827,7 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>23,99%</t>
+          <t>23,74%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -8842,12 +8842,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>16583</t>
+          <t>16230</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>31177</t>
+          <t>32090</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -8857,12 +8857,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>17,5%</t>
         </is>
       </c>
     </row>
@@ -8885,12 +8885,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>61665</t>
+          <t>60843</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>67488</t>
+          <t>67245</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>89,36%</t>
+          <t>88,17%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>97,8%</t>
+          <t>97,45%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -8920,12 +8920,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>86933</t>
+          <t>87220</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>100761</t>
+          <t>100758</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -8935,7 +8935,7 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>76,01%</t>
+          <t>76,26%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
@@ -8955,12 +8955,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>152194</t>
+          <t>151281</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>166788</t>
+          <t>167141</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -8970,12 +8970,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>83,0%</t>
+          <t>82,5%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>90,96%</t>
+          <t>91,15%</t>
         </is>
       </c>
     </row>
@@ -9115,12 +9115,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>27291</t>
+          <t>26639</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>48780</t>
+          <t>48638</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -9130,12 +9130,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -9150,12 +9150,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>31000</t>
+          <t>31355</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>52927</t>
+          <t>53542</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -9165,12 +9165,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -9185,12 +9185,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>63628</t>
+          <t>64780</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>95739</t>
+          <t>94894</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -9200,12 +9200,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>6,6%</t>
         </is>
       </c>
     </row>
@@ -9228,12 +9228,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>630562</t>
+          <t>630704</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>652051</t>
+          <t>652703</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -9243,12 +9243,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>92,82%</t>
+          <t>92,84%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>95,98%</t>
+          <t>96,08%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -9263,12 +9263,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>706020</t>
+          <t>705405</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>727947</t>
+          <t>727592</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -9278,12 +9278,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>93,03%</t>
+          <t>92,95%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>95,92%</t>
+          <t>95,87%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -9298,12 +9298,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1342550</t>
+          <t>1343395</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1374661</t>
+          <t>1373509</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -9313,12 +9313,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>93,34%</t>
+          <t>93,4%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>95,58%</t>
+          <t>95,5%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/VUL_OTRO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/VUL_OTRO-Edad-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante otros problemas de salud mental en País Vasco (tasa de respuesta: 99,34%)</t>
+          <t>Vulnerabilidad ante otros problemas de salud mental en Barcelona (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1791</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>7600</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>4784</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2260</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>9625</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>18</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>8699</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>5190</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>2235</t>
+          <t>14529</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>11,55%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>76199</t>
+          <t>60325</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>74727</t>
+          <t>56640</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>76734</t>
+          <t>62449</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>99,3%</t>
+          <t>93,91%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,38%</t>
+          <t>88,17%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,21%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>66145</t>
+          <t>56756</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>65735</t>
+          <t>51915</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>59280</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>99,85%</t>
+          <t>92,23%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>99,23%</t>
+          <t>84,36%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>96,33%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>303</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>142344</t>
+          <t>117081</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>140741</t>
+          <t>111251</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>142815</t>
+          <t>120590</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>99,56%</t>
+          <t>93,08%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>98,44%</t>
+          <t>88,45%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,89%</t>
+          <t>95,87%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76734</t>
+          <t>64240</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76734</t>
+          <t>64240</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>76734</t>
+          <t>64240</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>159</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>321</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>142976</t>
+          <t>125780</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>142976</t>
+          <t>125780</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>142976</t>
+          <t>125780</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4062</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1790</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7768</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>2871</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>943</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1278</t>
+          <t>6250</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>6933</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3700</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>11342</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>4,52%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>263</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>74488</t>
+          <t>118769</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>115063</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>121041</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>96,69%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,68%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,54%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>280</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>68763</t>
+          <t>125160</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>67863</t>
+          <t>121781</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>69141</t>
+          <t>127088</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>99,45%</t>
+          <t>97,76%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>98,15%</t>
+          <t>95,12%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,26%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>543</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>143251</t>
+          <t>243928</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>142262</t>
+          <t>239519</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>143629</t>
+          <t>247161</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,74%</t>
+          <t>97,24%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>99,05%</t>
+          <t>95,48%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,53%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>271</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74488</t>
+          <t>122831</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74488</t>
+          <t>122831</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74488</t>
+          <t>122831</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>286</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>69141</t>
+          <t>128031</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>69141</t>
+          <t>128031</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>69141</t>
+          <t>128031</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>767</t>
+          <t>557</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>143629</t>
+          <t>250861</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>143629</t>
+          <t>250861</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>143629</t>
+          <t>250861</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1949</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>10030</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>2243</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>916</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1625</t>
+          <t>4897</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>6543</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>3496</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>1641</t>
+          <t>13410</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>4,95%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>307</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>104179</t>
+          <t>135067</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>129337</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>137418</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>96,91%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,8%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,6%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>310</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>110272</t>
+          <t>129188</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>109415</t>
+          <t>126534</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>110767</t>
+          <t>130515</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>99,31%</t>
+          <t>98,29%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>98,54%</t>
+          <t>96,27%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,75%</t>
+          <t>99,3%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1145</t>
+          <t>617</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>214451</t>
+          <t>264254</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>213578</t>
+          <t>257387</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>214904</t>
+          <t>267301</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>99,64%</t>
+          <t>97,58%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>99,24%</t>
+          <t>95,05%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,85%</t>
+          <t>98,71%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>104179</t>
+          <t>139367</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>104179</t>
+          <t>139367</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>104179</t>
+          <t>139367</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>317</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>111040</t>
+          <t>131431</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>111040</t>
+          <t>131431</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>111040</t>
+          <t>131431</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>633</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>215219</t>
+          <t>270797</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>215219</t>
+          <t>270797</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>215219</t>
+          <t>270797</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2175</t>
+          <t>8366</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>5018</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3723</t>
+          <t>13028</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>4604</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1525</t>
+          <t>8855</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>26</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>2560</t>
+          <t>12970</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>1451</t>
+          <t>8727</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>4368</t>
+          <t>18458</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>7,8%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>266</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>142243</t>
+          <t>108821</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>140695</t>
+          <t>104159</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>143265</t>
+          <t>112169</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,49%</t>
+          <t>92,86%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,42%</t>
+          <t>88,88%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,2%</t>
+          <t>95,72%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>810</t>
+          <t>289</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>152071</t>
+          <t>114928</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>150931</t>
+          <t>110677</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>152456</t>
+          <t>117584</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>99,75%</t>
+          <t>96,15%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>99,0%</t>
+          <t>92,59%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,37%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1597</t>
+          <t>555</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>294314</t>
+          <t>223749</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>292506</t>
+          <t>218261</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>295423</t>
+          <t>227992</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>99,14%</t>
+          <t>94,52%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>98,53%</t>
+          <t>92,2%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>99,51%</t>
+          <t>96,31%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>284</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>144418</t>
+          <t>117187</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>144418</t>
+          <t>117187</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>144418</t>
+          <t>117187</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>297</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>152456</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>152456</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>152456</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1611</t>
+          <t>581</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>296874</t>
+          <t>236719</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>296874</t>
+          <t>236719</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>296874</t>
+          <t>236719</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,107 +2102,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>10634</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>5273</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1185</t>
+          <t>20623</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>21,04%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1472</t>
+          <t>3744</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>1015</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>3053</t>
+          <t>12421</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>17</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>1858</t>
+          <t>14378</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>889</t>
+          <t>7882</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>3611</t>
+          <t>25803</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>12,06%</t>
         </is>
       </c>
     </row>
@@ -2215,107 +2215,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>219</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>128880</t>
+          <t>87379</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>128080</t>
+          <t>77390</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>129172</t>
+          <t>92740</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>99,7%</t>
+          <t>89,15%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>99,08%</t>
+          <t>78,96%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,93%</t>
+          <t>94,62%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>271</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>150550</t>
+          <t>112116</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>148969</t>
+          <t>103439</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>151493</t>
+          <t>114845</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>99,03%</t>
+          <t>96,77%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>97,99%</t>
+          <t>89,28%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>99,65%</t>
+          <t>99,12%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1578</t>
+          <t>490</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>279429</t>
+          <t>199496</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>277676</t>
+          <t>188071</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>280398</t>
+          <t>205992</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>99,34%</t>
+          <t>93,28%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>98,72%</t>
+          <t>87,94%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>99,68%</t>
+          <t>96,31%</t>
         </is>
       </c>
     </row>
@@ -2328,22 +2328,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>129265</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>129265</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>129265</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2363,22 +2363,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>857</t>
+          <t>276</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>152022</t>
+          <t>115860</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>152022</t>
+          <t>115860</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>152022</t>
+          <t>115860</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2398,22 +2398,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1588</t>
+          <t>507</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>281287</t>
+          <t>213874</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>281287</t>
+          <t>213874</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>281287</t>
+          <t>213874</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2445,107 +2445,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1931</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>6111</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2,81%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0,6%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>8,9%</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>426</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>1128</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>0,41%</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>0,12%</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>1,08%</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>3081</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>707</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>10498</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>3,49%</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>0,8%</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>11,9%</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>1058</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>467</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>2255</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>0,91%</t>
-        </is>
-      </c>
-      <c r="O19" s="2" t="inlineStr">
-        <is>
-          <t>0,4%</t>
-        </is>
-      </c>
-      <c r="P19" s="2" t="inlineStr">
-        <is>
-          <t>1,95%</t>
-        </is>
-      </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1484</t>
+          <t>5013</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>2661</t>
+          <t>13060</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>8,32%</t>
         </is>
       </c>
     </row>
@@ -2558,107 +2558,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>103913</t>
+          <t>66768</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>103211</t>
+          <t>62588</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>104214</t>
+          <t>68288</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>99,59%</t>
+          <t>97,19%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>98,92%</t>
+          <t>91,1%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,88%</t>
+          <t>99,4%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>223</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>114864</t>
+          <t>85107</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>113667</t>
+          <t>77690</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>115455</t>
+          <t>87481</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>99,09%</t>
+          <t>96,51%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>98,05%</t>
+          <t>88,1%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>99,6%</t>
+          <t>99,2%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1338</t>
+          <t>398</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>218777</t>
+          <t>151874</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>217600</t>
+          <t>143827</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>219532</t>
+          <t>154773</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>99,33%</t>
+          <t>96,8%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>98,79%</t>
+          <t>91,68%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>99,67%</t>
+          <t>98,65%</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>178</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>104339</t>
+          <t>68699</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>104339</t>
+          <t>68699</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>104339</t>
+          <t>68699</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2706,22 +2706,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>227</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>115922</t>
+          <t>88188</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>115922</t>
+          <t>88188</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>115922</t>
+          <t>88188</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2741,22 +2741,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>405</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>220261</t>
+          <t>156887</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>220261</t>
+          <t>156887</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>220261</t>
+          <t>156887</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2788,107 +2788,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>3536</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>1761</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>8163</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>19343</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>13607</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>1547</t>
+          <t>27145</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>16,91%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>23,74%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>51</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>1464</t>
+          <t>22879</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>719</t>
+          <t>16230</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>2780</t>
+          <t>32090</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>17,5%</t>
         </is>
       </c>
     </row>
@@ -2901,107 +2901,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>181</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>88395</t>
+          <t>65470</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>87068</t>
+          <t>60843</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>88918</t>
+          <t>67245</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>99,22%</t>
+          <t>94,88%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>97,73%</t>
+          <t>88,17%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>99,81%</t>
+          <t>97,45%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>794</t>
+          <t>271</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>131054</t>
+          <t>95022</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>130280</t>
+          <t>87220</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>131507</t>
+          <t>100758</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>99,41%</t>
+          <t>83,09%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>98,83%</t>
+          <t>76,26%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>99,76%</t>
+          <t>88,1%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1344</t>
+          <t>452</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>219449</t>
+          <t>160492</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>218133</t>
+          <t>151281</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>220194</t>
+          <t>167141</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>99,34%</t>
+          <t>87,52%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>98,74%</t>
+          <t>82,5%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>99,67%</t>
+          <t>91,15%</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>89086</t>
+          <t>69006</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>89086</t>
+          <t>69006</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>89086</t>
+          <t>69006</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>310</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>131827</t>
+          <t>114365</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>131827</t>
+          <t>114365</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>131827</t>
+          <t>114365</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3084,22 +3084,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1354</t>
+          <t>503</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>220913</t>
+          <t>183371</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>220913</t>
+          <t>183371</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>220913</t>
+          <t>183371</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3131,107 +3131,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>4212</t>
+          <t>36745</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2638</t>
+          <t>26639</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>6512</t>
+          <t>48638</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>78</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4932</t>
+          <t>40671</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>3263</t>
+          <t>31355</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>6948</t>
+          <t>53542</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>149</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>9144</t>
+          <t>77416</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>6729</t>
+          <t>64780</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>12005</t>
+          <t>94894</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>6,6%</t>
         </is>
       </c>
     </row>
@@ -3244,107 +3244,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>4043</t>
+          <t>1564</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>718298</t>
+          <t>642597</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>715998</t>
+          <t>630704</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>719872</t>
+          <t>652703</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>99,42%</t>
+          <t>94,59%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>99,1%</t>
+          <t>92,84%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>99,63%</t>
+          <t>96,08%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>4444</t>
+          <t>1794</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>793718</t>
+          <t>718276</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>791702</t>
+          <t>705405</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>795387</t>
+          <t>727592</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>99,38%</t>
+          <t>94,64%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>99,13%</t>
+          <t>92,95%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>99,59%</t>
+          <t>95,87%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>8487</t>
+          <t>3358</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1512016</t>
+          <t>1360873</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1509155</t>
+          <t>1343395</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1514431</t>
+          <t>1373509</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>99,4%</t>
+          <t>94,62%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>99,21%</t>
+          <t>93,4%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>99,56%</t>
+          <t>95,5%</t>
         </is>
       </c>
     </row>
@@ -3357,22 +3357,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>4067</t>
+          <t>1635</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>722510</t>
+          <t>679342</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>722510</t>
+          <t>679342</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>722510</t>
+          <t>679342</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3392,22 +3392,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4476</t>
+          <t>1872</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>798650</t>
+          <t>758947</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>798650</t>
+          <t>758947</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>798650</t>
+          <t>758947</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3427,22 +3427,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>8543</t>
+          <t>3507</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1521160</t>
+          <t>1438289</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1521160</t>
+          <t>1438289</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1521160</t>
+          <t>1438289</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -6519,7 +6519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante otros problemas de salud mental en Barcelona (tasa de respuesta: 99,86%)</t>
+          <t>Vulnerabilidad ante otros problemas de salud mental en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6704,107 +6704,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3915</t>
+          <t>535</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1791</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7600</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4784</t>
+          <t>97</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2260</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>9625</t>
+          <t>507</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>8699</t>
+          <t>632</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>5190</t>
+          <t>161</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>14529</t>
+          <t>2235</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>1,56%</t>
         </is>
       </c>
     </row>
@@ -6817,107 +6817,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>373</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>60325</t>
+          <t>76199</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>56640</t>
+          <t>74727</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62449</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>93,91%</t>
+          <t>99,3%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>88,17%</t>
+          <t>97,38%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,21%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>347</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>56756</t>
+          <t>66145</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>51915</t>
+          <t>65735</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>59280</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>92,23%</t>
+          <t>99,85%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>84,36%</t>
+          <t>99,23%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>96,33%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>720</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>117081</t>
+          <t>142344</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>111251</t>
+          <t>140741</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>120590</t>
+          <t>142815</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>93,08%</t>
+          <t>99,56%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>88,45%</t>
+          <t>98,44%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>99,89%</t>
         </is>
       </c>
     </row>
@@ -6930,22 +6930,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>375</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>64240</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>64240</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>64240</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -6965,22 +6965,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>348</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -7000,22 +7000,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>723</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>125780</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>125780</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>125780</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -7047,107 +7047,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4062</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1790</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7768</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2871</t>
+          <t>378</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>943</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6250</t>
+          <t>1278</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>6933</t>
+          <t>378</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>3700</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>11342</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>0,95%</t>
         </is>
       </c>
     </row>
@@ -7160,107 +7160,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>395</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>118769</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>115063</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>121041</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,69%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>370</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>125160</t>
+          <t>68763</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>121781</t>
+          <t>67863</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>127088</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>97,76%</t>
+          <t>99,45%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>95,12%</t>
+          <t>98,15%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,26%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>765</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>243928</t>
+          <t>143251</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>239519</t>
+          <t>142262</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>247161</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>97,24%</t>
+          <t>99,74%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>95,48%</t>
+          <t>99,05%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,53%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -7273,22 +7273,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>395</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>122831</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>122831</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>122831</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -7308,22 +7308,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>372</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>128031</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>128031</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>128031</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -7343,22 +7343,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>767</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>250861</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>250861</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>250861</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -7390,107 +7390,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1949</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10030</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2243</t>
+          <t>768</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>916</t>
+          <t>273</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4897</t>
+          <t>1625</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>6543</t>
+          <t>768</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>3496</t>
+          <t>315</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>13410</t>
+          <t>1641</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>0,76%</t>
         </is>
       </c>
     </row>
@@ -7503,107 +7503,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>569</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>135067</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>129337</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>137418</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,91%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>576</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>129188</t>
+          <t>110272</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>126534</t>
+          <t>109415</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>130515</t>
+          <t>110767</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>98,29%</t>
+          <t>99,31%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>96,27%</t>
+          <t>98,54%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,3%</t>
+          <t>99,75%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>1145</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>264254</t>
+          <t>214451</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>257387</t>
+          <t>213578</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>267301</t>
+          <t>214904</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>97,58%</t>
+          <t>99,64%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,05%</t>
+          <t>99,24%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,71%</t>
+          <t>99,85%</t>
         </is>
       </c>
     </row>
@@ -7616,22 +7616,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>569</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>139367</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>139367</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>139367</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -7651,22 +7651,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>582</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>131431</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>131431</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>131431</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -7686,22 +7686,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>270797</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>270797</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>270797</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7733,107 +7733,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8366</t>
+          <t>2175</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5018</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13028</t>
+          <t>3723</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4604</t>
+          <t>385</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8855</t>
+          <t>1525</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>14</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>12970</t>
+          <t>2560</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>8727</t>
+          <t>1451</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>18458</t>
+          <t>4368</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>1,47%</t>
         </is>
       </c>
     </row>
@@ -7846,107 +7846,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>787</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>108821</t>
+          <t>142243</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>104159</t>
+          <t>140695</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>112169</t>
+          <t>143265</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>92,86%</t>
+          <t>98,49%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>88,88%</t>
+          <t>97,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,72%</t>
+          <t>99,2%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>810</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>114928</t>
+          <t>152071</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>110677</t>
+          <t>150931</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>117584</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>96,15%</t>
+          <t>99,75%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,59%</t>
+          <t>99,0%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>98,37%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>1597</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>223749</t>
+          <t>294314</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>218261</t>
+          <t>292506</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>227992</t>
+          <t>295423</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,52%</t>
+          <t>99,14%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,2%</t>
+          <t>98,53%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,31%</t>
+          <t>99,51%</t>
         </is>
       </c>
     </row>
@@ -7959,22 +7959,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>799</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>117187</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>117187</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>117187</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -7994,22 +7994,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>812</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -8029,22 +8029,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>1611</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>236719</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>236719</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>236719</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -8076,107 +8076,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10634</t>
+          <t>385</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5273</t>
+          <t>93</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>20623</t>
+          <t>1185</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3744</t>
+          <t>1472</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1015</t>
+          <t>529</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>12421</t>
+          <t>3053</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>14378</t>
+          <t>1858</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>7882</t>
+          <t>889</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>25803</t>
+          <t>3611</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>1,28%</t>
         </is>
       </c>
     </row>
@@ -8189,107 +8189,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>728</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>87379</t>
+          <t>128880</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>77390</t>
+          <t>128080</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>92740</t>
+          <t>129172</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>89,15%</t>
+          <t>99,7%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>78,96%</t>
+          <t>99,08%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>94,62%</t>
+          <t>99,93%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>850</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>112116</t>
+          <t>150550</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>103439</t>
+          <t>148969</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>114845</t>
+          <t>151493</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>96,77%</t>
+          <t>99,03%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>89,28%</t>
+          <t>97,99%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>99,12%</t>
+          <t>99,65%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>1578</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>199496</t>
+          <t>279429</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>188071</t>
+          <t>277676</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>205992</t>
+          <t>280398</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>93,28%</t>
+          <t>99,34%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>87,94%</t>
+          <t>98,72%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>96,31%</t>
+          <t>99,68%</t>
         </is>
       </c>
     </row>
@@ -8302,22 +8302,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>731</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -8337,22 +8337,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>857</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -8372,22 +8372,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>1588</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>213874</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>213874</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>213874</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -8419,107 +8419,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1931</t>
+          <t>426</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>125</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6111</t>
+          <t>1128</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3081</t>
+          <t>1058</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>707</t>
+          <t>467</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>10498</t>
+          <t>2255</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>5013</t>
+          <t>1484</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>2114</t>
+          <t>729</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>13060</t>
+          <t>2661</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>1,21%</t>
         </is>
       </c>
     </row>
@@ -8532,107 +8532,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>641</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>66768</t>
+          <t>103913</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>62588</t>
+          <t>103211</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>68288</t>
+          <t>104214</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>97,19%</t>
+          <t>99,59%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>91,1%</t>
+          <t>98,92%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,4%</t>
+          <t>99,88%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>697</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>85107</t>
+          <t>114864</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>77690</t>
+          <t>113667</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>87481</t>
+          <t>115455</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>96,51%</t>
+          <t>99,09%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>88,1%</t>
+          <t>98,05%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>99,2%</t>
+          <t>99,6%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>1338</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>151874</t>
+          <t>218777</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>143827</t>
+          <t>217600</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>154773</t>
+          <t>219532</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>96,8%</t>
+          <t>99,33%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>91,68%</t>
+          <t>98,79%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>98,65%</t>
+          <t>99,67%</t>
         </is>
       </c>
     </row>
@@ -8645,22 +8645,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>645</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>68699</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>68699</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>68699</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -8680,22 +8680,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>704</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>88188</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>88188</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>88188</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -8715,22 +8715,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>156887</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>156887</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>156887</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -8762,107 +8762,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>3536</t>
+          <t>691</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1761</t>
+          <t>168</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>8163</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>19343</t>
+          <t>773</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>13607</t>
+          <t>320</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>27145</t>
+          <t>1547</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>10</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>22879</t>
+          <t>1464</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>16230</t>
+          <t>719</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>32090</t>
+          <t>2780</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>1,26%</t>
         </is>
       </c>
     </row>
@@ -8875,107 +8875,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>550</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>65470</t>
+          <t>88395</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>60843</t>
+          <t>87068</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>67245</t>
+          <t>88918</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>94,88%</t>
+          <t>99,22%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>88,17%</t>
+          <t>97,73%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>97,45%</t>
+          <t>99,81%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>794</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>95022</t>
+          <t>131054</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>87220</t>
+          <t>130280</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>100758</t>
+          <t>131507</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>83,09%</t>
+          <t>99,41%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>76,26%</t>
+          <t>98,83%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>88,1%</t>
+          <t>99,76%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>1344</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>160492</t>
+          <t>219449</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>151281</t>
+          <t>218133</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>167141</t>
+          <t>220194</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>87,52%</t>
+          <t>99,34%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>82,5%</t>
+          <t>98,74%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>91,15%</t>
+          <t>99,67%</t>
         </is>
       </c>
     </row>
@@ -8988,22 +8988,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>553</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>69006</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>69006</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>69006</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -9023,22 +9023,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>801</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>114365</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>114365</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>114365</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -9058,22 +9058,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>1354</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>183371</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>183371</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>183371</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -9105,107 +9105,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>36745</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>26639</t>
+          <t>2638</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>48638</t>
+          <t>6512</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>40671</t>
+          <t>4932</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>31355</t>
+          <t>3263</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>53542</t>
+          <t>6948</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>56</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>77416</t>
+          <t>9144</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>64780</t>
+          <t>6729</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>94894</t>
+          <t>12005</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>0,79%</t>
         </is>
       </c>
     </row>
@@ -9218,107 +9218,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1564</t>
+          <t>4043</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>642597</t>
+          <t>718298</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>630704</t>
+          <t>715998</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>652703</t>
+          <t>719872</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>94,59%</t>
+          <t>99,42%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>92,84%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>96,08%</t>
+          <t>99,63%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>1794</t>
+          <t>4444</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>718276</t>
+          <t>793718</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>705405</t>
+          <t>791702</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>727592</t>
+          <t>795387</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>94,64%</t>
+          <t>99,38%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>92,95%</t>
+          <t>99,13%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>99,59%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>3358</t>
+          <t>8487</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1360873</t>
+          <t>1512016</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1343395</t>
+          <t>1509155</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1373509</t>
+          <t>1514431</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>94,62%</t>
+          <t>99,4%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>93,4%</t>
+          <t>99,21%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>95,5%</t>
+          <t>99,56%</t>
         </is>
       </c>
     </row>
@@ -9331,22 +9331,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1635</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>679342</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>679342</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>679342</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -9366,22 +9366,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>1872</t>
+          <t>4476</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>758947</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>758947</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>758947</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -9401,22 +9401,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>3507</t>
+          <t>8543</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1438289</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1438289</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1438289</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
